--- a/teaching/traditional_assets/database/data/saudi_arabia/saudi_arabia_insurance_life.xlsx
+++ b/teaching/traditional_assets/database/data/saudi_arabia/saudi_arabia_insurance_life.xlsx
@@ -591,106 +591,100 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.213</v>
+        <v>0.113</v>
       </c>
       <c r="E2">
-        <v>0.19</v>
-      </c>
-      <c r="F2">
-        <v>0.064</v>
+        <v>0.0554</v>
       </c>
       <c r="G2">
-        <v>0.0454726685538854</v>
+        <v>0.05165445404659415</v>
       </c>
       <c r="H2">
-        <v>0.0454726685538854</v>
+        <v>0.05165445404659415</v>
       </c>
       <c r="I2">
-        <v>0.05841473625453532</v>
+        <v>0.06591528932408898</v>
       </c>
       <c r="J2">
-        <v>0.05782552275724693</v>
+        <v>0.06222837507171944</v>
       </c>
       <c r="K2">
-        <v>141.17</v>
+        <v>158.1</v>
       </c>
       <c r="L2">
-        <v>0.0562856345440772</v>
+        <v>0.05195018565373114</v>
       </c>
       <c r="M2">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.01390820584144645</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.3400155840476021</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.01390820584144645</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.3400155840476021</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
       <c r="U2">
-        <v>377.9</v>
+        <v>193.7</v>
       </c>
       <c r="V2">
-        <v>0.1094981455725545</v>
+        <v>0.04614211867838681</v>
       </c>
       <c r="W2">
-        <v>-0.1210648148148148</v>
+        <v>-0.223155929038282</v>
       </c>
       <c r="X2">
-        <v>0.07683441128996647</v>
+        <v>0.0614077660836822</v>
       </c>
       <c r="Y2">
-        <v>-0.1978992261047813</v>
+        <v>-0.2845636951219642</v>
       </c>
       <c r="Z2">
-        <v>4.355852726641194</v>
+        <v>6.064766839378239</v>
       </c>
       <c r="AA2">
-        <v>-0.2074509803921568</v>
+        <v>-0.4019933554817276</v>
       </c>
       <c r="AB2">
-        <v>0.07683441128996647</v>
+        <v>0.0614077660836822</v>
       </c>
       <c r="AC2">
-        <v>-0.2842853916821233</v>
+        <v>-0.4634260165547759</v>
       </c>
       <c r="AD2">
-        <v>24.4</v>
+        <v>0.585</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>24.4</v>
+        <v>0.585</v>
       </c>
       <c r="AG2">
-        <v>-353.5</v>
+        <v>-193.115</v>
       </c>
       <c r="AH2">
-        <v>0.007020370583496374</v>
+        <v>0.000139335974762325</v>
       </c>
       <c r="AI2">
-        <v>0.02734506331951138</v>
+        <v>0.000516882623466471</v>
       </c>
       <c r="AJ2">
-        <v>-0.1141169254608258</v>
+        <v>-0.04822106555033541</v>
       </c>
       <c r="AK2">
-        <v>-0.6872083981337481</v>
+        <v>-0.2058608761466178</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -699,10 +693,10 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.161578703397126</v>
+        <v>0.002845330739299611</v>
       </c>
       <c r="AP2">
-        <v>-2.340904575855904</v>
+        <v>-0.9392752918287937</v>
       </c>
     </row>
     <row r="3">
@@ -722,106 +716,100 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.181</v>
+        <v>0.113</v>
       </c>
       <c r="E3">
-        <v>0.19</v>
-      </c>
-      <c r="F3">
-        <v>0.064</v>
+        <v>0.0554</v>
       </c>
       <c r="G3">
-        <v>0.05836244009422468</v>
+        <v>0.06709784525991767</v>
       </c>
       <c r="H3">
-        <v>0.05836244009422468</v>
+        <v>0.06709784525991767</v>
       </c>
       <c r="I3">
-        <v>0.07180570221752905</v>
+        <v>0.08120914467540552</v>
       </c>
       <c r="J3">
-        <v>0.06963284867191943</v>
+        <v>0.0675820565143707</v>
       </c>
       <c r="K3">
-        <v>171.4</v>
+        <v>195.4</v>
       </c>
       <c r="L3">
-        <v>0.0696125416294371</v>
+        <v>0.0675820565143707</v>
       </c>
       <c r="M3">
-        <v>48</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.01470948761951459</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>0.2800466744457409</v>
+        <v>-0</v>
       </c>
       <c r="P3">
-        <v>48</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.01470948761951459</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.2800466744457409</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>342.2</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="V3">
-        <v>0.1048663888207894</v>
+        <v>0.02442281517244922</v>
       </c>
       <c r="W3">
-        <v>0.2559354935045542</v>
+        <v>0.2494255808016339</v>
       </c>
       <c r="X3">
-        <v>0.07717917217142643</v>
+        <v>0.0614077660836822</v>
       </c>
       <c r="Y3">
-        <v>0.1787563213331278</v>
+        <v>0.1880178147179517</v>
       </c>
       <c r="Z3">
-        <v>4.532768777614137</v>
+        <v>6.578612059158136</v>
       </c>
       <c r="AA3">
-        <v>0.3156296023564065</v>
+        <v>0.4445961319681457</v>
       </c>
       <c r="AB3">
-        <v>0.07680873075766315</v>
+        <v>0.0614077660836822</v>
       </c>
       <c r="AC3">
-        <v>0.2388208715987433</v>
+        <v>0.3831883658844635</v>
       </c>
       <c r="AD3">
-        <v>24.4</v>
+        <v>0</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>24.4</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>-317.8</v>
+        <v>-95.09999999999999</v>
       </c>
       <c r="AH3">
-        <v>0.00742182747292858</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.03020549641000247</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.1078970598220955</v>
+        <v>-0.02503422133305254</v>
       </c>
       <c r="AK3">
-        <v>-0.6825601374570448</v>
+        <v>-0.1035496515679443</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -830,10 +818,10 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.1351052048726467</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-1.75968992248062</v>
+        <v>-0.398074508162411</v>
       </c>
     </row>
     <row r="4">
@@ -844,7 +832,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MetLife, American International Group and Arab National Bank Cooperative Insurance Company (SASE:8011)</t>
+          <t>Saudi Enaya Cooperative Insurance Company (SASE:8311)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -852,23 +840,26 @@
           <t>Insurance (Life)</t>
         </is>
       </c>
+      <c r="D4">
+        <v>0.76</v>
+      </c>
       <c r="G4">
-        <v>-0.2958115183246073</v>
+        <v>-0.581140350877193</v>
       </c>
       <c r="H4">
-        <v>-0.2958115183246073</v>
+        <v>-0.581140350877193</v>
       </c>
       <c r="I4">
-        <v>-0.2769633507853403</v>
+        <v>-0.2653508771929824</v>
       </c>
       <c r="J4">
-        <v>-0.2769633507853403</v>
+        <v>-0.2653508771929824</v>
       </c>
       <c r="K4">
-        <v>-5.23</v>
+        <v>-13.4</v>
       </c>
       <c r="L4">
-        <v>-0.2738219895287958</v>
+        <v>-0.293859649122807</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -892,55 +883,55 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>18.9</v>
+        <v>14.4</v>
       </c>
       <c r="V4">
-        <v>0.2036637931034483</v>
+        <v>0.1044234952864394</v>
       </c>
       <c r="W4">
-        <v>-0.1210648148148148</v>
+        <v>-0.2857142857142858</v>
       </c>
       <c r="X4">
-        <v>0.07683441128996647</v>
+        <v>0.06158460752332806</v>
       </c>
       <c r="Y4">
-        <v>-0.1978992261047813</v>
+        <v>-0.3472988932376138</v>
       </c>
       <c r="Z4">
-        <v>0.7490196078431373</v>
+        <v>1.514950166112957</v>
       </c>
       <c r="AA4">
-        <v>-0.2074509803921568</v>
+        <v>-0.4019933554817276</v>
       </c>
       <c r="AB4">
-        <v>0.07683441128996647</v>
+        <v>0.06143266107304832</v>
       </c>
       <c r="AC4">
-        <v>-0.2842853916821233</v>
+        <v>-0.4634260165547759</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>0.585</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>0.585</v>
       </c>
       <c r="AG4">
-        <v>-18.9</v>
+        <v>-13.815</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.004224284218507419</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>0.0172134765337649</v>
       </c>
       <c r="AJ4">
-        <v>-0.2557510148849796</v>
+        <v>-0.1113349719950034</v>
       </c>
       <c r="AK4">
-        <v>-1.010695187165775</v>
+        <v>-0.7053867755935667</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -949,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>-0</v>
+        <v>-0.05043103448275862</v>
       </c>
       <c r="AP4">
-        <v>3.787575150300601</v>
+        <v>1.190948275862069</v>
       </c>
     </row>
     <row r="5">
@@ -963,7 +954,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Saudi Enaya Cooperative Insurance Company (SASE:8311)</t>
+          <t>Al Sagr Cooperative Insurance Company (SASE:8180)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -972,25 +963,25 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.245</v>
+        <v>0.04219999999999999</v>
       </c>
       <c r="G5">
-        <v>-0.8955223880597015</v>
+        <v>-0.09680451127819549</v>
       </c>
       <c r="H5">
-        <v>-0.8955223880597015</v>
+        <v>-0.09680451127819549</v>
       </c>
       <c r="I5">
-        <v>-0.9328358208955224</v>
+        <v>-0.2077067669172932</v>
       </c>
       <c r="J5">
-        <v>-0.9328358208955224</v>
+        <v>-0.2077067669172932</v>
       </c>
       <c r="K5">
-        <v>-25</v>
+        <v>-23.9</v>
       </c>
       <c r="L5">
-        <v>-0.9328358208955224</v>
+        <v>-0.2246240601503759</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -1014,31 +1005,31 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>16.8</v>
+        <v>84.2</v>
       </c>
       <c r="V5">
-        <v>0.1764705882352941</v>
+        <v>0.5069235400361228</v>
       </c>
       <c r="W5">
-        <v>-1.219512195121951</v>
+        <v>-0.223155929038282</v>
       </c>
       <c r="X5">
-        <v>0.07683441128996647</v>
+        <v>0.0614077660836822</v>
       </c>
       <c r="Y5">
-        <v>-1.296346606411918</v>
+        <v>-0.2845636951219642</v>
       </c>
       <c r="Z5">
-        <v>3.774647887323944</v>
+        <v>3.304347826086958</v>
       </c>
       <c r="AA5">
-        <v>-3.52112676056338</v>
+        <v>-0.6863354037267083</v>
       </c>
       <c r="AB5">
-        <v>0.07683441128996647</v>
+        <v>0.0614077660836822</v>
       </c>
       <c r="AC5">
-        <v>-3.597961171853347</v>
+        <v>-0.7477431698103905</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1050,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>-16.8</v>
+        <v>-84.2</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -1059,10 +1050,10 @@
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>-0.2142857142857143</v>
+        <v>-1.028083028083028</v>
       </c>
       <c r="AK5">
-        <v>-0.558139534883721</v>
+        <v>-842.0000000000479</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1074,7 +1065,7 @@
         <v>-0</v>
       </c>
       <c r="AP5">
-        <v>0.6829268292682926</v>
+        <v>3.880184331797235</v>
       </c>
     </row>
   </sheetData>
